--- a/tut05/output/0401CS33.xlsx
+++ b/tut05/output/0401CS33.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.040816326530612</v>
+        <v>5.04</v>
       </c>
       <c r="C6" t="n">
-        <v>5.159090909090909</v>
+        <v>5.16</v>
       </c>
       <c r="D6" t="n">
-        <v>5.465116279069767</v>
+        <v>5.47</v>
       </c>
       <c r="E6" t="n">
-        <v>5.574468085106383</v>
+        <v>5.57</v>
       </c>
       <c r="F6" t="n">
-        <v>5.761904761904762</v>
+        <v>5.76</v>
       </c>
       <c r="G6" t="n">
         <v>5.75</v>
       </c>
       <c r="H6" t="n">
-        <v>6.902439024390244</v>
+        <v>6.9</v>
       </c>
       <c r="I6" t="n">
         <v>6.95</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.040816326530612</v>
+        <v>5.04</v>
       </c>
       <c r="C8" t="n">
-        <v>5.096774193548387</v>
+        <v>5.1</v>
       </c>
       <c r="D8" t="n">
-        <v>5.213235294117647</v>
+        <v>5.21</v>
       </c>
       <c r="E8" t="n">
-        <v>5.306010928961749</v>
+        <v>5.31</v>
       </c>
       <c r="F8" t="n">
-        <v>5.391111111111111</v>
+        <v>5.39</v>
       </c>
       <c r="G8" t="n">
-        <v>5.445283018867925</v>
+        <v>5.45</v>
       </c>
       <c r="H8" t="n">
-        <v>5.640522875816994</v>
+        <v>5.64</v>
       </c>
       <c r="I8" t="n">
-        <v>5.791907514450867</v>
+        <v>5.79</v>
       </c>
     </row>
   </sheetData>
